--- a/es/es-noun.xlsx
+++ b/es/es-noun.xlsx
@@ -38,1335 +38,1428 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="474">
   <si>
     <t>Spanish</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>ajo</t>
+  </si>
+  <si>
+    <t>ail</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>banane</t>
+  </si>
+  <si>
+    <t>cuchillo</t>
+  </si>
+  <si>
+    <t>couteau</t>
+  </si>
+  <si>
+    <t>hervido</t>
+  </si>
+  <si>
+    <t>bouilli</t>
+  </si>
+  <si>
+    <t>berenjena</t>
+  </si>
+  <si>
+    <t>aubergine</t>
+  </si>
+  <si>
+    <t>zanahoria</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>mezclador</t>
+  </si>
+  <si>
+    <t>mixeur</t>
+  </si>
+  <si>
+    <t>frito</t>
+  </si>
+  <si>
+    <t>frit</t>
+  </si>
+  <si>
+    <t>remolacha</t>
+  </si>
+  <si>
+    <t>betterave</t>
+  </si>
+  <si>
+    <t>pepino</t>
+  </si>
+  <si>
+    <t>concombre</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>poêle</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>grillé</t>
+  </si>
+  <si>
+    <t>manteca</t>
+  </si>
+  <si>
+    <t>beurre</t>
+  </si>
+  <si>
+    <t>césped</t>
+  </si>
+  <si>
+    <t>herbe</t>
+  </si>
+  <si>
+    <t>policía</t>
+  </si>
+  <si>
+    <t>éplucheur</t>
+  </si>
+  <si>
+    <t>hacha</t>
+  </si>
+  <si>
+    <t>haché</t>
+  </si>
+  <si>
+    <t>champiñón</t>
+  </si>
+  <si>
+    <t>champignon</t>
+  </si>
+  <si>
+    <t>oveja</t>
+  </si>
+  <si>
+    <t>mouton</t>
+  </si>
+  <si>
+    <t>látigo</t>
+  </si>
+  <si>
+    <t>fouet</t>
+  </si>
+  <si>
+    <t>sucio</t>
+  </si>
+  <si>
+    <t>salé</t>
+  </si>
+  <si>
+    <t>repollo</t>
+  </si>
+  <si>
+    <t>chou</t>
+  </si>
+  <si>
+    <t>cebolla</t>
+  </si>
+  <si>
+    <t>oignon</t>
+  </si>
+  <si>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>tasse</t>
+  </si>
+  <si>
+    <t>saltó</t>
+  </si>
+  <si>
+    <t>sauté</t>
+  </si>
+  <si>
+    <t>limón</t>
+  </si>
+  <si>
+    <t>citron</t>
+  </si>
+  <si>
+    <t>cerdo</t>
+  </si>
+  <si>
+    <t>porc</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>bouteille</t>
+  </si>
+  <si>
+    <t>rebanado</t>
+  </si>
+  <si>
+    <t>émincé</t>
+  </si>
+  <si>
+    <t>queso</t>
+  </si>
+  <si>
+    <t>fromage</t>
+  </si>
+  <si>
+    <t>pastas</t>
+  </si>
+  <si>
+    <t>pâtes</t>
+  </si>
+  <si>
+    <t>vaso</t>
+  </si>
+  <si>
+    <t>verre</t>
+  </si>
+  <si>
+    <t>azúcar</t>
+  </si>
+  <si>
+    <t>sucré</t>
+  </si>
+  <si>
+    <t>jamón</t>
+  </si>
+  <si>
+    <t>jambon</t>
+  </si>
+  <si>
+    <t>arroz</t>
+  </si>
+  <si>
+    <t>riz</t>
+  </si>
+  <si>
+    <t>leche</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>verdura</t>
+  </si>
+  <si>
+    <t>légume</t>
+  </si>
+  <si>
+    <t>tomate</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>vino</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>pez</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>chalote</t>
+  </si>
+  <si>
+    <t>échalote</t>
+  </si>
+  <si>
+    <t>pimienta</t>
+  </si>
+  <si>
+    <t>poivre</t>
+  </si>
+  <si>
+    <t>picante</t>
+  </si>
+  <si>
+    <t>épice</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>pomme</t>
+  </si>
+  <si>
+    <t>espinaca</t>
+  </si>
+  <si>
+    <t>épinard</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>pomme de terre</t>
+  </si>
+  <si>
+    <t>pollo</t>
+  </si>
+  <si>
+    <t>poulet</t>
+  </si>
+  <si>
+    <t>becerro</t>
+  </si>
+  <si>
+    <t>veau</t>
+  </si>
+  <si>
+    <t>carne</t>
+  </si>
+  <si>
+    <t>viande</t>
+  </si>
+  <si>
+    <t>aves de corral</t>
+  </si>
+  <si>
+    <t>volaille</t>
+  </si>
+  <si>
+    <t>huevo</t>
+  </si>
+  <si>
+    <t>œuf</t>
+  </si>
+  <si>
+    <t>hombre</t>
+  </si>
+  <si>
+    <t>homme</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>femme</t>
+  </si>
+  <si>
+    <t>remitente</t>
+  </si>
+  <si>
+    <t>expéditeur</t>
+  </si>
+  <si>
+    <t>destinatario</t>
+  </si>
+  <si>
+    <t>destinataire</t>
+  </si>
+  <si>
+    <t>señor</t>
+  </si>
+  <si>
+    <t>monsieur</t>
+  </si>
+  <si>
+    <t>Señora</t>
+  </si>
+  <si>
+    <t>madame</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>garçon</t>
+  </si>
+  <si>
+    <t>chica</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>novio</t>
+  </si>
+  <si>
+    <t>copain</t>
+  </si>
+  <si>
+    <t>novia</t>
+  </si>
+  <si>
+    <t>copine</t>
+  </si>
+  <si>
+    <t>petit copain</t>
+  </si>
+  <si>
+    <t>chico guapo</t>
+  </si>
+  <si>
+    <t>beau gosse</t>
+  </si>
+  <si>
+    <t>tío</t>
+  </si>
+  <si>
+    <t>oncle</t>
+  </si>
+  <si>
+    <t>tía</t>
+  </si>
+  <si>
+    <t>tante</t>
+  </si>
+  <si>
+    <t>padre</t>
+  </si>
+  <si>
+    <t>père</t>
+  </si>
+  <si>
+    <t>madre</t>
+  </si>
+  <si>
+    <t>mère</t>
+  </si>
+  <si>
+    <t>hermano</t>
+  </si>
+  <si>
+    <t>frère</t>
+  </si>
+  <si>
+    <t>hermana</t>
+  </si>
+  <si>
+    <t>sœur</t>
+  </si>
+  <si>
+    <t>sobrino</t>
+  </si>
+  <si>
+    <t>neveu</t>
+  </si>
+  <si>
+    <t>sobrina</t>
+  </si>
+  <si>
+    <t>nièce</t>
+  </si>
+  <si>
+    <t>niño</t>
+  </si>
+  <si>
+    <t>enfant</t>
+  </si>
+  <si>
+    <t>abogado</t>
+  </si>
+  <si>
+    <t>avocat</t>
+  </si>
+  <si>
+    <t>acróbata</t>
+  </si>
+  <si>
+    <t>acrobate</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>chauffeur</t>
+  </si>
+  <si>
+    <t>arquitecto</t>
+  </si>
+  <si>
+    <t>architecte</t>
+  </si>
+  <si>
+    <t>encriptador</t>
+  </si>
+  <si>
+    <t>chiffreur</t>
+  </si>
+  <si>
+    <t>electricista</t>
+  </si>
+  <si>
+    <t>électricien</t>
+  </si>
+  <si>
+    <t>peluquero</t>
+  </si>
+  <si>
+    <t>coiffeur</t>
+  </si>
+  <si>
+    <t>periodista</t>
+  </si>
+  <si>
+    <t>journaliste</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>comptable</t>
+  </si>
+  <si>
+    <t>masón</t>
+  </si>
+  <si>
+    <t>maçon</t>
+  </si>
+  <si>
+    <t>corrector de pruebas</t>
+  </si>
+  <si>
+    <t>correcteur</t>
+  </si>
+  <si>
+    <t>mecánico</t>
+  </si>
+  <si>
+    <t>mécanicien</t>
+  </si>
+  <si>
+    <t>diseñador de moda</t>
+  </si>
+  <si>
+    <t>couturier</t>
+  </si>
+  <si>
+    <t>fotógrafo</t>
+  </si>
+  <si>
+    <t>photographe</t>
+  </si>
+  <si>
+    <t>cocinar</t>
+  </si>
+  <si>
+    <t>cuisinier</t>
+  </si>
+  <si>
+    <t>plomero</t>
+  </si>
+  <si>
+    <t>plombier</t>
+  </si>
+  <si>
+    <t>domador</t>
+  </si>
+  <si>
+    <t>dompteur</t>
+  </si>
+  <si>
+    <t>ingeniero</t>
+  </si>
+  <si>
+    <t>ingénieur</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>enseignant</t>
+  </si>
+  <si>
+    <t>juez</t>
+  </si>
+  <si>
+    <t>juge</t>
+  </si>
+  <si>
+    <t>enfermero</t>
+  </si>
+  <si>
+    <t>infirmière</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>carpintero</t>
+  </si>
+  <si>
+    <t>menuisier</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>directeur</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>médecin</t>
+  </si>
+  <si>
+    <t>óptico</t>
+  </si>
+  <si>
+    <t>opticien</t>
+  </si>
+  <si>
+    <t>obrero</t>
+  </si>
+  <si>
+    <t>ouvrier</t>
+  </si>
+  <si>
+    <t>pastelero</t>
+  </si>
+  <si>
+    <t>pâtissier</t>
+  </si>
+  <si>
+    <t>réalisateur</t>
+  </si>
+  <si>
+    <t>saltimbanque</t>
+  </si>
+  <si>
+    <t>servidor</t>
+  </si>
+  <si>
+    <t>serveur</t>
+  </si>
+  <si>
+    <t>escritor</t>
+  </si>
+  <si>
+    <t>écrivain</t>
+  </si>
+  <si>
+    <t>póster</t>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>etiqueta engomada</t>
+  </si>
+  <si>
+    <t>autocollant</t>
+  </si>
+  <si>
+    <t>capítulo</t>
+  </si>
+  <si>
+    <t>chapitre</t>
+  </si>
+  <si>
+    <t>borrador</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>columna</t>
+  </si>
+  <si>
+    <t>colonne</t>
+  </si>
+  <si>
+    <t>computadora portátil</t>
+  </si>
+  <si>
+    <t>carnet</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>contrat</t>
+  </si>
+  <si>
+    <t>caso</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>forma</t>
+  </si>
+  <si>
+    <t>formulaire</t>
+  </si>
+  <si>
+    <t>prospecto</t>
+  </si>
+  <si>
+    <t>dépliant</t>
+  </si>
+  <si>
+    <t>carta</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t>hoja</t>
+  </si>
+  <si>
+    <t>feuille</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t>fiche</t>
+  </si>
+  <si>
+    <t>informe</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>periódico</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>libro</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>tesis</t>
+  </si>
+  <si>
+    <t>thèse</t>
+  </si>
+  <si>
+    <t>lámina</t>
+  </si>
+  <si>
+    <t>plaquette</t>
+  </si>
+  <si>
+    <t>cuadro</t>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>tampon</t>
+  </si>
+  <si>
+    <t>estampilla</t>
+  </si>
+  <si>
+    <t>timbre</t>
+  </si>
+  <si>
+    <t>tract</t>
+  </si>
+  <si>
     <t>Enligsh</t>
   </si>
   <si>
-    <t>ajo</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>zanahoria</t>
-  </si>
-  <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>cuchillo</t>
-  </si>
-  <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>hervido</t>
-  </si>
-  <si>
-    <t>boiled</t>
-  </si>
-  <si>
-    <t>berenjena</t>
-  </si>
-  <si>
-    <t>eggplant</t>
-  </si>
-  <si>
-    <t>pepino</t>
-  </si>
-  <si>
-    <t>cucumber</t>
-  </si>
-  <si>
-    <t>mezclador</t>
-  </si>
-  <si>
-    <t>mixer</t>
-  </si>
-  <si>
-    <t>frito</t>
-  </si>
-  <si>
-    <t>fried</t>
-  </si>
-  <si>
-    <t>remolacha</t>
-  </si>
-  <si>
-    <t>beetroot</t>
-  </si>
-  <si>
-    <t>césped</t>
-  </si>
-  <si>
-    <t>herb</t>
-  </si>
-  <si>
-    <t>cocina</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>grilled</t>
-  </si>
-  <si>
-    <t>manteca</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>oveja</t>
-  </si>
-  <si>
-    <t>mutton</t>
-  </si>
-  <si>
-    <t>policía</t>
-  </si>
-  <si>
-    <t>peeler</t>
-  </si>
-  <si>
-    <t>hacha</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>champiñón</t>
-  </si>
-  <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>cebolla</t>
-  </si>
-  <si>
-    <t>onion</t>
-  </si>
-  <si>
-    <t>látigo</t>
-  </si>
-  <si>
-    <t>whisk</t>
-  </si>
-  <si>
-    <t>sucio</t>
-  </si>
-  <si>
-    <t>salty</t>
-  </si>
-  <si>
-    <t>repollo</t>
-  </si>
-  <si>
-    <t>cabbage</t>
-  </si>
-  <si>
-    <t>cerdo</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>taza</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>saltó</t>
-  </si>
-  <si>
-    <t>sautéed</t>
-  </si>
-  <si>
-    <t>limón</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>pastas</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>botella</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t>rebanado</t>
-  </si>
-  <si>
-    <t>sliced thin</t>
-  </si>
-  <si>
-    <t>queso</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>arroz</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>vaso</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>azúcar</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>jamón</t>
-  </si>
-  <si>
-    <t>ham</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>leche</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>tomate</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>verdura</t>
-  </si>
-  <si>
-    <t>vegetable</t>
-  </si>
-  <si>
-    <t>vino</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>chalote</t>
-  </si>
-  <si>
-    <t>shallot</t>
-  </si>
-  <si>
-    <t>pez</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>picante</t>
-  </si>
-  <si>
-    <t>spice</t>
-  </si>
-  <si>
-    <t>pimienta</t>
-  </si>
-  <si>
-    <t>pepper</t>
-  </si>
-  <si>
-    <t>espinaca</t>
-  </si>
-  <si>
-    <t>spinach</t>
-  </si>
-  <si>
-    <t>manzana</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>papa</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>pollo</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>becerro</t>
-  </si>
-  <si>
-    <t>calf</t>
-  </si>
-  <si>
-    <t>carne</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>aves de corral</t>
-  </si>
-  <si>
-    <t>poultry</t>
-  </si>
-  <si>
-    <t>huevo</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>hombre</t>
-  </si>
-  <si>
-    <t>mujer</t>
-  </si>
-  <si>
-    <t>remitente</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>destinatario</t>
-  </si>
-  <si>
-    <t>receiver</t>
-  </si>
-  <si>
-    <t>señor</t>
-  </si>
-  <si>
-    <t>Señora</t>
-  </si>
-  <si>
-    <t>chico</t>
-  </si>
-  <si>
-    <t>chica</t>
-  </si>
-  <si>
-    <t>novio</t>
-  </si>
-  <si>
-    <t>novia</t>
-  </si>
-  <si>
-    <t>boyfriend</t>
-  </si>
-  <si>
-    <t>chico guapo</t>
-  </si>
-  <si>
-    <t>handsome kid</t>
-  </si>
-  <si>
-    <t>tío</t>
-  </si>
-  <si>
-    <t>tía</t>
-  </si>
-  <si>
-    <t>padre</t>
-  </si>
-  <si>
-    <t>madre</t>
-  </si>
-  <si>
-    <t>hermano</t>
-  </si>
-  <si>
-    <t>hermana</t>
-  </si>
-  <si>
-    <t>sobrino</t>
-  </si>
-  <si>
-    <t>sobrina</t>
-  </si>
-  <si>
-    <t>niño</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>abogado</t>
-  </si>
-  <si>
-    <t>lawyer</t>
-  </si>
-  <si>
-    <t>acróbata</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acrobat</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>arquitecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> architect</t>
-  </si>
-  <si>
-    <t>encriptador</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>electricista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> electrician</t>
-  </si>
-  <si>
-    <t>peluquero</t>
-  </si>
-  <si>
-    <t>barber</t>
-  </si>
-  <si>
-    <t>periodista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> journalist</t>
-  </si>
-  <si>
-    <t>contador</t>
-  </si>
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>masón</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mason</t>
-  </si>
-  <si>
-    <t>corrector de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> proofreader</t>
-  </si>
-  <si>
-    <t>mecánico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mechanic</t>
-  </si>
-  <si>
-    <t>diseñador de moda</t>
-  </si>
-  <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>fotógrafo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> photographer</t>
-  </si>
-  <si>
-    <t>cocinar</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>plomero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plumber</t>
-  </si>
-  <si>
-    <t>domador</t>
-  </si>
-  <si>
-    <t>animal tamer</t>
-  </si>
-  <si>
-    <t>ingeniero</t>
-  </si>
-  <si>
-    <t>engineer</t>
-  </si>
-  <si>
-    <t>maestro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teacher educator</t>
-  </si>
-  <si>
-    <t>juez</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>enfermero</t>
-  </si>
-  <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>professor</t>
-  </si>
-  <si>
-    <t>carpintero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carpenter</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>óptico</t>
-  </si>
-  <si>
-    <t>optician</t>
-  </si>
-  <si>
-    <t>obrero</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>pastelero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastry chef</t>
-  </si>
-  <si>
-    <t>film director</t>
-  </si>
-  <si>
-    <t>street performer</t>
-  </si>
-  <si>
-    <t>servidor</t>
-  </si>
-  <si>
-    <t>waiter</t>
-  </si>
-  <si>
-    <t>escritor</t>
-  </si>
-  <si>
-    <t>writer</t>
-  </si>
-  <si>
-    <t>póster</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poster</t>
-  </si>
-  <si>
-    <t>dirección</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> address</t>
-  </si>
-  <si>
-    <t>etiqueta engomada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sticker</t>
-  </si>
-  <si>
-    <t>capítulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chapter</t>
-  </si>
-  <si>
-    <t>borrador</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>columna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> column</t>
-  </si>
-  <si>
-    <t>computadora portátil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> notebook</t>
-  </si>
-  <si>
-    <t>contrato</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>caso</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>forma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> form</t>
-  </si>
-  <si>
-    <t>prospecto</t>
-  </si>
-  <si>
-    <t>foldable booklet</t>
-  </si>
-  <si>
-    <t>carta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> letter</t>
-  </si>
-  <si>
-    <t>hoja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sheet</t>
-  </si>
-  <si>
-    <t>lista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> list</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> card/file</t>
-  </si>
-  <si>
-    <t>informe</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>periódico</t>
-  </si>
-  <si>
-    <t>newspaper</t>
-  </si>
-  <si>
-    <t>revisar</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>libro</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>tesis</t>
-  </si>
-  <si>
-    <t>thesis</t>
-  </si>
-  <si>
-    <t>lámina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pamphlet</t>
-  </si>
-  <si>
-    <t>cuadro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chart</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>stamp</t>
-  </si>
-  <si>
-    <t>estampilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leaflet</t>
-  </si>
-  <si>
     <t>vocal</t>
   </si>
   <si>
-    <t>vowel</t>
+    <t>voyelle</t>
   </si>
   <si>
     <t>consonante</t>
   </si>
   <si>
-    <t>consonant</t>
+    <t>consonne</t>
   </si>
   <si>
     <t>palabra</t>
   </si>
   <si>
-    <t>word</t>
+    <t>mot</t>
   </si>
   <si>
     <t>párrafo</t>
   </si>
   <si>
-    <t>linebreak</t>
+    <t>alinéa</t>
   </si>
   <si>
     <t>acento agudo</t>
   </si>
   <si>
-    <t>acute accent</t>
+    <t>accent aigu</t>
   </si>
   <si>
     <t>comillas</t>
   </si>
   <si>
-    <t>quotation mark</t>
+    <t>guillemet</t>
   </si>
   <si>
     <t>acento circunflejo</t>
   </si>
   <si>
-    <t>circumflex accent</t>
+    <t>accent circonflexe</t>
   </si>
   <si>
     <t>línea</t>
   </si>
   <si>
-    <t xml:space="preserve"> line</t>
+    <t>ligne</t>
   </si>
   <si>
     <t>acento grave</t>
   </si>
   <si>
-    <t>grave accent</t>
+    <t>accent grave</t>
   </si>
   <si>
     <t>punto</t>
   </si>
   <si>
-    <t>dot/period</t>
+    <t>point</t>
   </si>
   <si>
     <t>cedilla</t>
   </si>
   <si>
+    <t>cédilla</t>
+  </si>
+  <si>
     <t>subrayar</t>
   </si>
   <si>
-    <t>underline</t>
+    <t>soulignement</t>
   </si>
   <si>
     <t>metafonía</t>
   </si>
   <si>
-    <t>dieresis</t>
+    <t>tréma</t>
   </si>
   <si>
     <t>estrellarse</t>
   </si>
   <si>
-    <t>dash/stroke</t>
+    <t>tiret</t>
   </si>
   <si>
     <t>guión</t>
   </si>
   <si>
-    <t>hyphen</t>
+    <t>traitd'union</t>
   </si>
   <si>
     <t>coma</t>
   </si>
   <si>
-    <t>comma</t>
+    <t>virgule</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>@</t>
+    <t>arobase</t>
   </si>
   <si>
     <t>playa</t>
   </si>
   <si>
-    <t>beach</t>
+    <t>plage</t>
   </si>
   <si>
     <t>río</t>
   </si>
   <si>
-    <t>river</t>
+    <t>rivière</t>
   </si>
   <si>
     <t>montaña</t>
   </si>
   <si>
-    <t>mountain</t>
+    <t>montagne</t>
   </si>
   <si>
     <t>departamento</t>
   </si>
   <si>
-    <t>apartment</t>
+    <t>appartement</t>
   </si>
   <si>
     <t>edificio</t>
   </si>
   <si>
-    <t>building</t>
+    <t>bâtiment</t>
   </si>
   <si>
     <t>embutidos</t>
   </si>
   <si>
+    <t>charcuterie</t>
+  </si>
+  <si>
     <t>hotel</t>
   </si>
   <si>
+    <t>hôtel</t>
+  </si>
+  <si>
     <t>alojamiento</t>
   </si>
   <si>
-    <t>little hotel</t>
+    <t>immeuble</t>
   </si>
   <si>
     <t>pastelería</t>
   </si>
   <si>
+    <t>pâtisserie</t>
+  </si>
+  <si>
     <t>casa</t>
   </si>
   <si>
-    <t>house</t>
+    <t>maison</t>
   </si>
   <si>
     <t>albergue</t>
   </si>
   <si>
+    <t>gîte</t>
+  </si>
+  <si>
     <t>panadería</t>
   </si>
   <si>
+    <t>boulangerie</t>
+  </si>
+  <si>
     <t>castillo</t>
   </si>
   <si>
-    <t>castle</t>
+    <t>château</t>
   </si>
   <si>
     <t>cabaña</t>
   </si>
   <si>
-    <t>lodging hut</t>
+    <t>auberge</t>
   </si>
   <si>
     <t>biblioteca</t>
   </si>
   <si>
+    <t>bibliothèque</t>
+  </si>
+  <si>
     <t>granja</t>
   </si>
   <si>
-    <t>farm</t>
+    <t>castel</t>
   </si>
   <si>
     <t>cobertizo</t>
   </si>
   <si>
-    <t>cottage</t>
+    <t>cabane</t>
   </si>
   <si>
     <t>costurera</t>
   </si>
   <si>
+    <t>couturière</t>
+  </si>
+  <si>
     <t>jardín</t>
   </si>
   <si>
-    <t>garden</t>
+    <t>ferme</t>
   </si>
   <si>
     <t>bodega</t>
   </si>
   <si>
-    <t>cellar</t>
+    <t>cabanon</t>
   </si>
   <si>
     <t>caminar</t>
   </si>
   <si>
-    <t>market</t>
+    <t>jardin</t>
   </si>
   <si>
     <t>iglesia</t>
   </si>
   <si>
-    <t>chapel</t>
+    <t>cave</t>
   </si>
   <si>
     <t>museo</t>
   </si>
   <si>
-    <t>museum</t>
+    <t>marché</t>
   </si>
   <si>
     <t>almacenar</t>
   </si>
   <si>
-    <t>store</t>
+    <t>église</t>
   </si>
   <si>
     <t>teatro</t>
   </si>
   <si>
-    <t>theater</t>
+    <t>musée</t>
   </si>
   <si>
     <t>piscina</t>
   </si>
   <si>
-    <t>pool</t>
+    <t>magasin</t>
   </si>
   <si>
     <t>parque</t>
   </si>
   <si>
-    <t>park</t>
+    <t>théâtre</t>
   </si>
   <si>
     <t>puente</t>
   </si>
   <si>
-    <t>bridge</t>
+    <t>piscine</t>
   </si>
   <si>
     <t>escuela</t>
   </si>
   <si>
-    <t>school</t>
+    <t>parc</t>
   </si>
   <si>
     <t>ciudad</t>
   </si>
   <si>
-    <t>city</t>
+    <t>pont</t>
   </si>
   <si>
     <t>catedral</t>
   </si>
   <si>
-    <t>cathedral</t>
+    <t>école</t>
   </si>
   <si>
     <t>suburbio</t>
   </si>
   <si>
-    <t>suburb</t>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>cathédrale</t>
   </si>
   <si>
     <t>calle</t>
   </si>
   <si>
-    <t>road</t>
+    <t>banlieue</t>
+  </si>
+  <si>
+    <t>rue</t>
   </si>
   <si>
     <t>pasillo</t>
   </si>
   <si>
-    <t>alley</t>
+    <t>allée</t>
   </si>
   <si>
     <t>dividir</t>
   </si>
   <si>
-    <t>partitions</t>
+    <t>cloison</t>
   </si>
   <si>
     <t>baño</t>
   </si>
   <si>
-    <t>bath</t>
+    <t>bain</t>
   </si>
   <si>
     <t>dormitorio</t>
   </si>
   <si>
-    <t>sleeping room</t>
+    <t>chambre</t>
   </si>
   <si>
     <t>escaleras</t>
   </si>
   <si>
-    <t>stairs</t>
+    <t>escalier</t>
   </si>
   <si>
     <t>cama</t>
   </si>
   <si>
-    <t>bed</t>
+    <t>lit</t>
   </si>
   <si>
     <t>ático</t>
   </si>
   <si>
-    <t>attics</t>
+    <t>combles</t>
   </si>
   <si>
     <t>ventana</t>
   </si>
   <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>hundir</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>fenêtre</t>
+  </si>
+  <si>
+    <t>lavabo</t>
+  </si>
+  <si>
+    <t>cuisine</t>
   </si>
   <si>
     <t>muro</t>
   </si>
   <si>
-    <t>wall</t>
+    <t>mur</t>
   </si>
   <si>
     <t>aterrizaje</t>
   </si>
   <si>
-    <t>hallway</t>
+    <t>palier</t>
   </si>
   <si>
     <t>techo</t>
   </si>
   <si>
-    <t>ceiling</t>
-  </si>
-  <si>
-    <t>bathroom</t>
+    <t>plafond</t>
+  </si>
+  <si>
+    <t>salle d'eau</t>
   </si>
   <si>
     <t>puerta</t>
   </si>
   <si>
-    <t>door</t>
+    <t>porte</t>
   </si>
   <si>
     <t>sala de estar</t>
   </si>
   <si>
-    <t>living room</t>
+    <t>salon</t>
   </si>
   <si>
     <t>planta baja</t>
   </si>
   <si>
-    <t>ground floor</t>
-  </si>
-  <si>
-    <t>roof</t>
+    <t>rez-de-chaussée</t>
+  </si>
+  <si>
+    <t>toit</t>
   </si>
   <si>
     <t>piso</t>
   </si>
   <si>
-    <t>floor</t>
+    <t>étage</t>
   </si>
   <si>
     <t>corredor</t>
   </si>
   <si>
-    <t>corridor</t>
+    <t>couloir</t>
   </si>
   <si>
     <t>piragüismo</t>
   </si>
   <si>
-    <t>kayaking</t>
+    <t>canoë-kayak</t>
   </si>
   <si>
     <t>atletismo</t>
   </si>
   <si>
-    <t>athletics</t>
+    <t>athlétisme</t>
   </si>
   <si>
     <t>correr</t>
   </si>
   <si>
-    <t>running</t>
+    <t>course à pied</t>
   </si>
   <si>
     <t>atletismo de pared alta</t>
   </si>
   <si>
-    <t>high jump</t>
+    <t>athlétisme du haut mur</t>
   </si>
   <si>
     <t>escalada</t>
   </si>
   <si>
-    <t>climbing</t>
+    <t>escalade</t>
   </si>
   <si>
     <t>boxeo</t>
   </si>
   <si>
-    <t>boxing</t>
+    <t>boxe</t>
   </si>
   <si>
     <t>nadar</t>
   </si>
   <si>
-    <t>swimming</t>
+    <t>natation</t>
   </si>
   <si>
     <t>ciclismo</t>
   </si>
   <si>
-    <t>cycling</t>
+    <t>cyclisme</t>
   </si>
   <si>
     <t>buceo</t>
   </si>
   <si>
-    <t>diving</t>
+    <t>plongée</t>
   </si>
   <si>
     <t>gimnasia</t>
   </si>
   <si>
-    <t>gymnastics</t>
+    <t>gymnastique</t>
   </si>
   <si>
     <t>senderismo</t>
   </si>
   <si>
-    <t>hiking</t>
+    <t>randonnée</t>
   </si>
   <si>
     <t>kárate</t>
   </si>
   <si>
-    <t>karate</t>
+    <t>karaté</t>
   </si>
   <si>
     <t>salto de longitud</t>
   </si>
   <si>
-    <t>long jump</t>
+    <t>saut en longueur</t>
   </si>
   <si>
     <t>equitación</t>
   </si>
   <si>
-    <t>horse riding</t>
+    <t>équitation</t>
   </si>
   <si>
     <t>anillo</t>
   </si>
   <si>
-    <t>ring</t>
+    <t>bague</t>
   </si>
   <si>
     <t>sandalias</t>
   </si>
   <si>
-    <t>sandal</t>
+    <t>sandale</t>
   </si>
   <si>
     <t>cinturón</t>
   </si>
   <si>
-    <t>belt</t>
+    <t>ceinture</t>
   </si>
   <si>
     <t>sombrero</t>
   </si>
   <si>
-    <t>hat</t>
+    <t>chapeau</t>
   </si>
   <si>
     <t>zapato</t>
   </si>
   <si>
-    <t>shoes</t>
+    <t>chaussure</t>
   </si>
   <si>
     <t>camisa</t>
   </si>
   <si>
-    <t>shirt</t>
+    <t>chemise</t>
   </si>
   <si>
     <t>pegajoso</t>
   </si>
   <si>
-    <t>tights</t>
+    <t>collant</t>
   </si>
   <si>
     <t>atar</t>
   </si>
   <si>
-    <t>tie</t>
+    <t>cravate</t>
   </si>
   <si>
     <t>chaleco</t>
   </si>
   <si>
-    <t>vest</t>
+    <t>gilet</t>
   </si>
   <si>
     <t>falda</t>
   </si>
   <si>
-    <t>skirt</t>
+    <t>jupe</t>
   </si>
   <si>
     <t>jersey</t>
   </si>
   <si>
-    <t>t-shirt</t>
+    <t>maillot</t>
   </si>
   <si>
     <t>pantalones</t>
   </si>
   <si>
-    <t>trousers</t>
+    <t>pantalon</t>
   </si>
   <si>
     <t>suéter</t>
   </si>
   <si>
-    <t>sweater</t>
+    <t>pull</t>
   </si>
   <si>
     <t>vestido</t>
   </si>
   <si>
-    <t>dress</t>
+    <t>robe</t>
   </si>
   <si>
     <t>chaqueta</t>
   </si>
   <si>
-    <t>jacket</t>
+    <t>veste</t>
   </si>
   <si>
     <t>prenda</t>
   </si>
   <si>
-    <t>clothing</t>
+    <t>vêtement</t>
   </si>
   <si>
     <t>bufanda</t>
   </si>
   <si>
-    <t>scarf</t>
+    <t>écharpe</t>
   </si>
   <si>
     <t>gato</t>
   </si>
   <si>
-    <t>cat</t>
+    <t>chat</t>
   </si>
   <si>
     <t>planta</t>
   </si>
   <si>
-    <t>plant</t>
+    <t>plante</t>
   </si>
   <si>
     <t>caballo</t>
   </si>
   <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>árobol</t>
-  </si>
-  <si>
-    <t>tree</t>
+    <t>cheval</t>
+  </si>
+  <si>
+    <t>árbol</t>
+  </si>
+  <si>
+    <t>arbre</t>
   </si>
   <si>
     <t>búho</t>
   </si>
   <si>
-    <t>owl</t>
+    <t>chouette</t>
   </si>
   <si>
     <t>flor</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>fleur</t>
   </si>
   <si>
     <t>perro</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>chien</t>
   </si>
   <si>
     <t>beber</t>
   </si>
   <si>
-    <t>woods</t>
+    <t>bois</t>
   </si>
   <si>
     <t>vaca</t>
   </si>
   <si>
-    <t>cow</t>
+    <t>vache</t>
   </si>
 </sst>
 </file>
@@ -1379,17 +1472,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1865,137 +1951,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,19 +2094,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,7 +2642,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2635,10 +2718,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2661,10 +2744,10 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2739,10 +2822,10 @@
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2765,10 +2848,10 @@
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2817,10 +2900,10 @@
       <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="1"/>
@@ -2835,10 +2918,10 @@
       <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="1"/>
@@ -2853,11 +2936,11 @@
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2866,7 +2949,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>78</v>
@@ -2889,10 +2972,10 @@
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="1"/>
@@ -2907,10 +2990,10 @@
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="1"/>
@@ -2925,70 +3008,75 @@
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
@@ -3009,15 +3097,13 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="12.3846153846154" customWidth="1"/>
-    <col min="3" max="3" width="23.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
+    <col min="1" max="2" width="17.1538461538462" customWidth="1"/>
+    <col min="3" max="4" width="23.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3036,102 +3122,102 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>370</v>
+        <v>400</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>388</v>
+        <v>418</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3247,13 +3333,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.3846153846154" customWidth="1"/>
-    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+    <col min="1" max="2" width="10.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3272,25 +3357,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3298,10 +3383,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3309,10 +3394,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3320,98 +3405,98 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +3513,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3450,66 +3535,66 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3524,17 +3609,16 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.5384615384615" customWidth="1"/>
     <col min="2" max="2" width="14.3076923076923" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.38461538461539" customWidth="1"/>
-    <col min="7" max="7" width="12.3076923076923" customWidth="1"/>
-    <col min="8" max="8" width="8.53846153846154" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.4615384615385" customWidth="1"/>
+    <col min="8" max="8" width="12.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3565,45 +3649,57 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3611,77 +3707,104 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -3697,7 +3820,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3726,234 +3849,234 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3979,7 +4102,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4006,186 +4129,186 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -4211,7 +4334,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4231,35 +4354,35 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4276,7 +4399,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4291,7 +4414,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4302,111 +4425,111 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>241</v>
+      <c r="A2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>245</v>
+      <c r="A3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>249</v>
+      <c r="A4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>253</v>
+      <c r="A5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>255</v>
+      <c r="A6" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>260</v>
+      <c r="A7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>262</v>
+      <c r="A8" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>264</v>
+      <c r="A9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>266</v>
+      <c r="A10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4477,7 +4600,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -4491,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4502,26 +4625,26 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4554,7 +4677,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -4589,207 +4712,227 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>295</v>
+        <v>324</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>330</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>307</v>
+        <v>336</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>315</v>
+        <v>344</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="3:4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2"/>
@@ -4826,9 +4969,6 @@
   <sortState ref="E2:F12">
     <sortCondition ref="E2:E12"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4840,15 +4980,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.8461538461538" customWidth="1"/>
     <col min="2" max="2" width="14.4615384615385" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4873,62 +5012,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>329</v>
+        <v>360</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>364</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>370</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>341</v>
+        <v>372</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4936,87 +5075,87 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>358</v>
+        <v>380</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>360</v>
+        <v>390</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:2">
